--- a/PythonResources/Data/Consumption/Sympheny/futu_CA_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_CA_coo.xlsx
@@ -639,7 +639,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>151.7850077751747</v>
+        <v>151.7850077751746</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>27.40844314216701</v>
+        <v>27.408443142167</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>132.2310150046511</v>
+        <v>132.231015004651</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>239.1694132307507</v>
+        <v>239.1694132307506</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>16.74786688244511</v>
+        <v>16.7478668824451</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>29.36747650009877</v>
+        <v>29.36747650009876</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>59.20650430140364</v>
+        <v>59.20650430140363</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>319.8342859118994</v>
+        <v>319.8342859118993</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>293.8681918865042</v>
+        <v>293.8681918865041</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>0.1847147627502021</v>
+        <v>0.184714762750202</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>5.987822312201544</v>
+        <v>5.987822312201543</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>62.07977276443947</v>
+        <v>62.07977276443946</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>75.99449260904149</v>
+        <v>75.99449260904147</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>514</v>
       </c>
       <c r="B514">
-        <v>0.4208001894411194</v>
+        <v>0.4208001894411193</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>5.300658647852288</v>
+        <v>5.300658647852287</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>593</v>
       </c>
       <c r="B593">
-        <v>373.9322689383971</v>
+        <v>373.932268938397</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>335.1355248404082</v>
+        <v>335.1355248404081</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>158.212934866134</v>
+        <v>158.2129348661339</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>612</v>
       </c>
       <c r="B612">
-        <v>304.5916611911228</v>
+        <v>304.5916611911227</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>234.7727615087532</v>
+        <v>234.7727615087531</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>416.2106969756828</v>
+        <v>416.2106969756827</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6151,7 +6151,7 @@
         <v>726</v>
       </c>
       <c r="B726">
-        <v>84.81417244651601</v>
+        <v>84.814172446516</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>750</v>
       </c>
       <c r="B750">
-        <v>23.9851096466677</v>
+        <v>23.98510964666769</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>52.12649414942286</v>
+        <v>52.12649414942285</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>6.653562483624657</v>
+        <v>6.653562483624656</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>381.4407489489008</v>
+        <v>381.4407489489007</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>877</v>
       </c>
       <c r="B877">
-        <v>391.5106698373046</v>
+        <v>391.5106698373045</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>422.6406755639127</v>
+        <v>422.6406755639126</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>897</v>
       </c>
       <c r="B897">
-        <v>6.144058482911908</v>
+        <v>6.144058482911907</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7535,7 +7535,7 @@
         <v>899</v>
       </c>
       <c r="B899">
-        <v>81.81048737127588</v>
+        <v>81.81048737127587</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>930</v>
       </c>
       <c r="B930">
-        <v>231.2139998862885</v>
+        <v>231.2139998862884</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>953</v>
       </c>
       <c r="B953">
-        <v>266.6131714330764</v>
+        <v>266.6131714330763</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>188.3506020558348</v>
+        <v>188.3506020558347</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8543,7 +8543,7 @@
         <v>1025</v>
       </c>
       <c r="B1025">
-        <v>199.0869664861545</v>
+        <v>199.0869664861544</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>321.1589670066487</v>
+        <v>321.1589670066486</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8863,7 +8863,7 @@
         <v>1065</v>
       </c>
       <c r="B1065">
-        <v>161.7286150459155</v>
+        <v>161.7286150459154</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>220.153791958248</v>
+        <v>220.1537919582479</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>1073</v>
       </c>
       <c r="B1073">
-        <v>511.3444868355421</v>
+        <v>511.344486835542</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8943,7 +8943,7 @@
         <v>1075</v>
       </c>
       <c r="B1075">
-        <v>441.7078773392198</v>
+        <v>441.7078773392197</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>1089</v>
       </c>
       <c r="B1089">
-        <v>53.22726897063488</v>
+        <v>53.22726897063487</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>49.01290743468473</v>
+        <v>49.01290743468472</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>433.7451372187911</v>
+        <v>433.745137218791</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10263,7 +10263,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>260.8024519495379</v>
+        <v>260.8024519495378</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>244.5071160578898</v>
+        <v>244.5071160578897</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>244.5123913365857</v>
+        <v>244.5123913365856</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>220.4776354559688</v>
+        <v>220.4776354559687</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>1281</v>
       </c>
       <c r="B1281">
-        <v>91.76933433602706</v>
+        <v>91.76933433602704</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10671,7 +10671,7 @@
         <v>1291</v>
       </c>
       <c r="B1291">
-        <v>268.8545787367584</v>
+        <v>268.8545787367583</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>449.0463761472999</v>
+        <v>449.0463761472998</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>1361</v>
       </c>
       <c r="B1361">
-        <v>471.2230616428039</v>
+        <v>471.2230616428038</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11439,7 +11439,7 @@
         <v>1387</v>
       </c>
       <c r="B1387">
-        <v>422.1571083501215</v>
+        <v>422.1571083501214</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>517.2733139476611</v>
+        <v>517.273313947661</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11615,7 +11615,7 @@
         <v>1409</v>
       </c>
       <c r="B1409">
-        <v>512.9124168923803</v>
+        <v>512.9124168923802</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
@@ -11623,7 +11623,7 @@
         <v>1410</v>
       </c>
       <c r="B1410">
-        <v>442.8098244445865</v>
+        <v>442.8098244445864</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
@@ -11951,7 +11951,7 @@
         <v>1451</v>
       </c>
       <c r="B1451">
-        <v>7.753077099370425</v>
+        <v>7.753077099370424</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
@@ -11967,7 +11967,7 @@
         <v>1453</v>
       </c>
       <c r="B1453">
-        <v>159.2926085725624</v>
+        <v>159.2926085725623</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -12679,7 +12679,7 @@
         <v>1542</v>
       </c>
       <c r="B1542">
-        <v>33.1513166802554</v>
+        <v>33.15131668025539</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
@@ -12759,7 +12759,7 @@
         <v>1552</v>
       </c>
       <c r="B1552">
-        <v>326.1968581612372</v>
+        <v>326.1968581612371</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -12967,7 +12967,7 @@
         <v>1578</v>
       </c>
       <c r="B1578">
-        <v>295.4156069706361</v>
+        <v>295.415606970636</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
@@ -12975,7 +12975,7 @@
         <v>1579</v>
       </c>
       <c r="B1579">
-        <v>273.5519213444224</v>
+        <v>273.5519213444223</v>
       </c>
     </row>
     <row r="1580" spans="1:2">
@@ -13063,7 +13063,7 @@
         <v>1590</v>
       </c>
       <c r="B1590">
-        <v>84.9287632226326</v>
+        <v>84.92876322263258</v>
       </c>
     </row>
     <row r="1591" spans="1:2">
@@ -13079,7 +13079,7 @@
         <v>1592</v>
       </c>
       <c r="B1592">
-        <v>121.3147049565933</v>
+        <v>121.3147049565932</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13119,7 +13119,7 @@
         <v>1597</v>
       </c>
       <c r="B1597">
-        <v>262.6221300285862</v>
+        <v>262.6221300285861</v>
       </c>
     </row>
     <row r="1598" spans="1:2">
@@ -13303,7 +13303,7 @@
         <v>1620</v>
       </c>
       <c r="B1620">
-        <v>328.7201998041114</v>
+        <v>328.7201998041113</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -14071,7 +14071,7 @@
         <v>1716</v>
       </c>
       <c r="B1716">
-        <v>339.1388752285222</v>
+        <v>339.1388752285221</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>399.1305168424996</v>
+        <v>399.1305168424995</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14495,7 +14495,7 @@
         <v>1769</v>
       </c>
       <c r="B1769">
-        <v>592.841681266489</v>
+        <v>592.8416812664889</v>
       </c>
     </row>
     <row r="1770" spans="1:2">
@@ -14663,7 +14663,7 @@
         <v>1790</v>
       </c>
       <c r="B1790">
-        <v>428.2148867192515</v>
+        <v>428.2148867192514</v>
       </c>
     </row>
     <row r="1791" spans="1:2">
@@ -14679,7 +14679,7 @@
         <v>1792</v>
       </c>
       <c r="B1792">
-        <v>507.4964640979186</v>
+        <v>507.4964640979185</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -15199,7 +15199,7 @@
         <v>1857</v>
       </c>
       <c r="B1857">
-        <v>154.7570411782394</v>
+        <v>154.7570411782393</v>
       </c>
     </row>
     <row r="1858" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>301.5407916786582</v>
+        <v>301.5407916786581</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15239,7 +15239,7 @@
         <v>1862</v>
       </c>
       <c r="B1862">
-        <v>432.8747162339669</v>
+        <v>432.8747162339668</v>
       </c>
     </row>
     <row r="1863" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>520.9484247724744</v>
+        <v>520.9484247724743</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15463,7 +15463,7 @@
         <v>1890</v>
       </c>
       <c r="B1890">
-        <v>483.7870170702158</v>
+        <v>483.7870170702157</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -15559,7 +15559,7 @@
         <v>1902</v>
       </c>
       <c r="B1902">
-        <v>166.4133555989171</v>
+        <v>166.413355598917</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>410.5544259295188</v>
+        <v>410.5544259295187</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15831,7 +15831,7 @@
         <v>1936</v>
       </c>
       <c r="B1936">
-        <v>535.2239150656685</v>
+        <v>535.2239150656684</v>
       </c>
     </row>
     <row r="1937" spans="1:2">
@@ -15847,7 +15847,7 @@
         <v>1938</v>
       </c>
       <c r="B1938">
-        <v>396.519253888027</v>
+        <v>396.5192538880269</v>
       </c>
     </row>
     <row r="1939" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>97.06542107567624</v>
+        <v>97.0654210756762</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -16031,7 +16031,7 @@
         <v>1961</v>
       </c>
       <c r="B1961">
-        <v>555.4516781540746</v>
+        <v>555.4516781540744</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -16039,7 +16039,7 @@
         <v>1962</v>
       </c>
       <c r="B1962">
-        <v>475.2879569490368</v>
+        <v>475.2879569490367</v>
       </c>
     </row>
     <row r="1963" spans="1:2">
@@ -16567,7 +16567,7 @@
         <v>2028</v>
       </c>
       <c r="B2028">
-        <v>373.1878685001973</v>
+        <v>373.1878685001972</v>
       </c>
     </row>
     <row r="2029" spans="1:2">
@@ -16583,7 +16583,7 @@
         <v>2030</v>
       </c>
       <c r="B2030">
-        <v>459.3976452328186</v>
+        <v>459.3976452328185</v>
       </c>
     </row>
     <row r="2031" spans="1:2">
@@ -16799,7 +16799,7 @@
         <v>2057</v>
       </c>
       <c r="B2057">
-        <v>602.1437560336001</v>
+        <v>602.1437560336</v>
       </c>
     </row>
     <row r="2058" spans="1:2">
@@ -16895,7 +16895,7 @@
         <v>2069</v>
       </c>
       <c r="B2069">
-        <v>264.8406777912526</v>
+        <v>264.8406777912525</v>
       </c>
     </row>
     <row r="2070" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>90.02409630079875</v>
+        <v>90.02409630079873</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17183,7 +17183,7 @@
         <v>2105</v>
       </c>
       <c r="B2105">
-        <v>422.8575481325221</v>
+        <v>422.857548132522</v>
       </c>
     </row>
     <row r="2106" spans="1:2">
@@ -17279,7 +17279,7 @@
         <v>2117</v>
       </c>
       <c r="B2117">
-        <v>59.89434202914182</v>
+        <v>59.89434202914181</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>68.69497224910336</v>
+        <v>68.69497224910334</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17335,7 +17335,7 @@
         <v>2124</v>
       </c>
       <c r="B2124">
-        <v>402.0553658083398</v>
+        <v>402.0553658083397</v>
       </c>
     </row>
     <row r="2125" spans="1:2">
@@ -17367,7 +17367,7 @@
         <v>2128</v>
       </c>
       <c r="B2128">
-        <v>643.5078024302624</v>
+        <v>643.5078024302622</v>
       </c>
     </row>
     <row r="2129" spans="1:2">
@@ -17943,7 +17943,7 @@
         <v>2200</v>
       </c>
       <c r="B2200">
-        <v>495.0321528236516</v>
+        <v>495.0321528236515</v>
       </c>
     </row>
     <row r="2201" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>95.97783445120398</v>
+        <v>95.97783445120396</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>167.3048776985249</v>
+        <v>167.3048776985248</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18343,7 +18343,7 @@
         <v>2250</v>
       </c>
       <c r="B2250">
-        <v>320.9948472249983</v>
+        <v>320.9948472249982</v>
       </c>
     </row>
     <row r="2251" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>332.7382037441584</v>
+        <v>332.7382037441583</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19279,7 +19279,7 @@
         <v>2367</v>
       </c>
       <c r="B2367">
-        <v>881.2265140196394</v>
+        <v>881.2265140196392</v>
       </c>
     </row>
     <row r="2368" spans="1:2">
@@ -19399,7 +19399,7 @@
         <v>2382</v>
       </c>
       <c r="B2382">
-        <v>544.3765236030623</v>
+        <v>544.3765236030622</v>
       </c>
     </row>
     <row r="2383" spans="1:2">
@@ -19415,7 +19415,7 @@
         <v>2384</v>
       </c>
       <c r="B2384">
-        <v>561.1372563041047</v>
+        <v>561.1372563041045</v>
       </c>
     </row>
     <row r="2385" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>449.5445969130242</v>
+        <v>449.5445969130241</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19823,7 +19823,7 @@
         <v>2435</v>
       </c>
       <c r="B2435">
-        <v>429.2640810376591</v>
+        <v>429.264081037659</v>
       </c>
     </row>
     <row r="2436" spans="1:2">
@@ -19879,7 +19879,7 @@
         <v>2442</v>
       </c>
       <c r="B2442">
-        <v>626.6738019695547</v>
+        <v>626.6738019695546</v>
       </c>
     </row>
     <row r="2443" spans="1:2">
@@ -19991,7 +19991,7 @@
         <v>2456</v>
       </c>
       <c r="B2456">
-        <v>324.1277766282881</v>
+        <v>324.127776628288</v>
       </c>
     </row>
     <row r="2457" spans="1:2">
@@ -20039,7 +20039,7 @@
         <v>2462</v>
       </c>
       <c r="B2462">
-        <v>690.616041184687</v>
+        <v>690.6160411846869</v>
       </c>
     </row>
     <row r="2463" spans="1:2">
@@ -20543,7 +20543,7 @@
         <v>2525</v>
       </c>
       <c r="B2525">
-        <v>662.3376166642538</v>
+        <v>662.3376166642537</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -20567,7 +20567,7 @@
         <v>2528</v>
       </c>
       <c r="B2528">
-        <v>605.1067042344663</v>
+        <v>605.1067042344662</v>
       </c>
     </row>
     <row r="2529" spans="1:2">
@@ -20591,7 +20591,7 @@
         <v>2531</v>
       </c>
       <c r="B2531">
-        <v>881.8683395943077</v>
+        <v>881.8683395943076</v>
       </c>
     </row>
     <row r="2532" spans="1:2">
@@ -20631,7 +20631,7 @@
         <v>2536</v>
       </c>
       <c r="B2536">
-        <v>1270.199188662137</v>
+        <v>1270.199188662136</v>
       </c>
     </row>
     <row r="2537" spans="1:2">
@@ -20735,7 +20735,7 @@
         <v>2549</v>
       </c>
       <c r="B2549">
-        <v>842.0956689375765</v>
+        <v>842.0956689375764</v>
       </c>
     </row>
     <row r="2550" spans="1:2">
@@ -20767,7 +20767,7 @@
         <v>2553</v>
       </c>
       <c r="B2553">
-        <v>858.7391732231544</v>
+        <v>858.7391732231542</v>
       </c>
     </row>
     <row r="2554" spans="1:2">
@@ -20791,7 +20791,7 @@
         <v>2556</v>
       </c>
       <c r="B2556">
-        <v>981.0875397331062</v>
+        <v>981.087539733106</v>
       </c>
     </row>
     <row r="2557" spans="1:2">
@@ -20935,7 +20935,7 @@
         <v>2574</v>
       </c>
       <c r="B2574">
-        <v>770.9790506960145</v>
+        <v>770.9790506960144</v>
       </c>
     </row>
     <row r="2575" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>828.7902437823515</v>
+        <v>828.7902437823514</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -21159,7 +21159,7 @@
         <v>2602</v>
       </c>
       <c r="B2602">
-        <v>708.3585618652448</v>
+        <v>708.3585618652447</v>
       </c>
     </row>
     <row r="2603" spans="1:2">
@@ -21391,7 +21391,7 @@
         <v>2631</v>
       </c>
       <c r="B2631">
-        <v>745.4818703324775</v>
+        <v>745.4818703324773</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -21991,7 +21991,7 @@
         <v>2706</v>
       </c>
       <c r="B2706">
-        <v>878.8321236337762</v>
+        <v>878.8321236337761</v>
       </c>
     </row>
     <row r="2707" spans="1:2">
@@ -22111,7 +22111,7 @@
         <v>2721</v>
       </c>
       <c r="B2721">
-        <v>629.2938570551871</v>
+        <v>629.293857055187</v>
       </c>
     </row>
     <row r="2722" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>974.5374020190252</v>
+        <v>974.537402019025</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22487,7 +22487,7 @@
         <v>2768</v>
       </c>
       <c r="B2768">
-        <v>815.1419255118926</v>
+        <v>815.1419255118925</v>
       </c>
     </row>
     <row r="2769" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>1280.078613375411</v>
+        <v>1280.07861337541</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -23335,7 +23335,7 @@
         <v>2874</v>
       </c>
       <c r="B2874">
-        <v>615.1678329917103</v>
+        <v>615.1678329917102</v>
       </c>
     </row>
     <row r="2875" spans="1:2">
@@ -23431,7 +23431,7 @@
         <v>2886</v>
       </c>
       <c r="B2886">
-        <v>274.2133826786811</v>
+        <v>274.213382678681</v>
       </c>
     </row>
     <row r="2887" spans="1:2">
@@ -23495,7 +23495,7 @@
         <v>2894</v>
       </c>
       <c r="B2894">
-        <v>717.455486905293</v>
+        <v>717.4554869052929</v>
       </c>
     </row>
     <row r="2895" spans="1:2">
@@ -23511,7 +23511,7 @@
         <v>2896</v>
       </c>
       <c r="B2896">
-        <v>898.8518062847327</v>
+        <v>898.8518062847326</v>
       </c>
     </row>
     <row r="2897" spans="1:2">
@@ -23519,7 +23519,7 @@
         <v>2897</v>
       </c>
       <c r="B2897">
-        <v>891.6481201544368</v>
+        <v>891.6481201544367</v>
       </c>
     </row>
     <row r="2898" spans="1:2">
@@ -23647,7 +23647,7 @@
         <v>2913</v>
       </c>
       <c r="B2913">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="2914" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>622.4623711439912</v>
+        <v>622.462371143991</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23855,7 +23855,7 @@
         <v>2939</v>
       </c>
       <c r="B2939">
-        <v>698.7429010867661</v>
+        <v>698.742901086766</v>
       </c>
     </row>
     <row r="2940" spans="1:2">
@@ -23871,7 +23871,7 @@
         <v>2941</v>
       </c>
       <c r="B2941">
-        <v>899.2679671596318</v>
+        <v>899.2679671596317</v>
       </c>
     </row>
     <row r="2942" spans="1:2">
@@ -23911,7 +23911,7 @@
         <v>2946</v>
       </c>
       <c r="B2946">
-        <v>963.5706837523176</v>
+        <v>963.5706837523174</v>
       </c>
     </row>
     <row r="2947" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>1325.536862182172</v>
+        <v>1325.536862182171</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24615,7 +24615,7 @@
         <v>3034</v>
       </c>
       <c r="B3034">
-        <v>1423.533956089753</v>
+        <v>1423.533956089752</v>
       </c>
     </row>
     <row r="3035" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>747.0732460724086</v>
+        <v>747.0732460724084</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>694.1739235940357</v>
+        <v>694.1739235940356</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -25015,7 +25015,7 @@
         <v>3084</v>
       </c>
       <c r="B3084">
-        <v>714.1789526930592</v>
+        <v>714.178952693059</v>
       </c>
     </row>
     <row r="3085" spans="1:2">
@@ -25023,7 +25023,7 @@
         <v>3085</v>
       </c>
       <c r="B3085">
-        <v>766.289914077433</v>
+        <v>766.2899140774329</v>
       </c>
     </row>
     <row r="3086" spans="1:2">
@@ -25055,7 +25055,7 @@
         <v>3089</v>
       </c>
       <c r="B3089">
-        <v>852.6345034878385</v>
+        <v>852.6345034878384</v>
       </c>
     </row>
     <row r="3090" spans="1:2">
@@ -25167,7 +25167,7 @@
         <v>3103</v>
       </c>
       <c r="B3103">
-        <v>460.0834314632862</v>
+        <v>460.0834314632861</v>
       </c>
     </row>
     <row r="3104" spans="1:2">
@@ -25175,7 +25175,7 @@
         <v>3104</v>
       </c>
       <c r="B3104">
-        <v>493.3938857175347</v>
+        <v>493.3938857175346</v>
       </c>
     </row>
     <row r="3105" spans="1:2">
@@ -25183,7 +25183,7 @@
         <v>3105</v>
       </c>
       <c r="B3105">
-        <v>599.9720996371195</v>
+        <v>599.9720996371194</v>
       </c>
     </row>
     <row r="3106" spans="1:2">
@@ -25247,7 +25247,7 @@
         <v>3113</v>
       </c>
       <c r="B3113">
-        <v>795.9692181626674</v>
+        <v>795.9692181626673</v>
       </c>
     </row>
     <row r="3114" spans="1:2">
@@ -25343,7 +25343,7 @@
         <v>3125</v>
       </c>
       <c r="B3125">
-        <v>479.3206144410169</v>
+        <v>479.3206144410168</v>
       </c>
     </row>
     <row r="3126" spans="1:2">
@@ -25359,7 +25359,7 @@
         <v>3127</v>
       </c>
       <c r="B3127">
-        <v>476.6419451476522</v>
+        <v>476.6419451476521</v>
       </c>
     </row>
     <row r="3128" spans="1:2">
@@ -25375,7 +25375,7 @@
         <v>3129</v>
       </c>
       <c r="B3129">
-        <v>596.7102189768187</v>
+        <v>596.7102189768186</v>
       </c>
     </row>
     <row r="3130" spans="1:2">
@@ -25415,7 +25415,7 @@
         <v>3134</v>
       </c>
       <c r="B3134">
-        <v>837.2453432477313</v>
+        <v>837.2453432477312</v>
       </c>
     </row>
     <row r="3135" spans="1:2">
@@ -25927,7 +25927,7 @@
         <v>3198</v>
       </c>
       <c r="B3198">
-        <v>416.5154908558906</v>
+        <v>416.5154908558905</v>
       </c>
     </row>
     <row r="3199" spans="1:2">
@@ -25983,7 +25983,7 @@
         <v>3205</v>
       </c>
       <c r="B3205">
-        <v>717.3353277794419</v>
+        <v>717.3353277794417</v>
       </c>
     </row>
     <row r="3206" spans="1:2">
@@ -26023,7 +26023,7 @@
         <v>3210</v>
       </c>
       <c r="B3210">
-        <v>852.7693161656227</v>
+        <v>852.7693161656226</v>
       </c>
     </row>
     <row r="3211" spans="1:2">
@@ -26119,7 +26119,7 @@
         <v>3222</v>
       </c>
       <c r="B3222">
-        <v>441.1862108904026</v>
+        <v>441.1862108904025</v>
       </c>
     </row>
     <row r="3223" spans="1:2">
@@ -26143,7 +26143,7 @@
         <v>3225</v>
       </c>
       <c r="B3225">
-        <v>625.5132406564558</v>
+        <v>625.5132406564557</v>
       </c>
     </row>
     <row r="3226" spans="1:2">
@@ -26167,7 +26167,7 @@
         <v>3228</v>
       </c>
       <c r="B3228">
-        <v>774.5222795534302</v>
+        <v>774.5222795534301</v>
       </c>
     </row>
     <row r="3229" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>827.4362555837361</v>
+        <v>827.4362555837359</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>871.2122766285812</v>
+        <v>871.2122766285811</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -27279,7 +27279,7 @@
         <v>3367</v>
       </c>
       <c r="B3367">
-        <v>888.8785988390871</v>
+        <v>888.878598839087</v>
       </c>
     </row>
     <row r="3368" spans="1:2">
@@ -27551,7 +27551,7 @@
         <v>3401</v>
       </c>
       <c r="B3401">
-        <v>1749.501339627718</v>
+        <v>1749.501339627717</v>
       </c>
     </row>
     <row r="3402" spans="1:2">
@@ -27711,7 +27711,7 @@
         <v>3421</v>
       </c>
       <c r="B3421">
-        <v>1224.412700292075</v>
+        <v>1224.412700292074</v>
       </c>
     </row>
     <row r="3422" spans="1:2">
@@ -27743,7 +27743,7 @@
         <v>3425</v>
       </c>
       <c r="B3425">
-        <v>1295.11620559754</v>
+        <v>1295.116205597539</v>
       </c>
     </row>
     <row r="3426" spans="1:2">
@@ -27919,7 +27919,7 @@
         <v>3447</v>
       </c>
       <c r="B3447">
-        <v>890.3234390596875</v>
+        <v>890.3234390596874</v>
       </c>
     </row>
     <row r="3448" spans="1:2">
@@ -28087,7 +28087,7 @@
         <v>3468</v>
       </c>
       <c r="B3468">
-        <v>578.3434569839122</v>
+        <v>578.3434569839121</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -28479,7 +28479,7 @@
         <v>3517</v>
       </c>
       <c r="B3517">
-        <v>51.60951683722425</v>
+        <v>51.60951683722424</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -28495,7 +28495,7 @@
         <v>3519</v>
       </c>
       <c r="B3519">
-        <v>62.7095824265227</v>
+        <v>62.70958242652269</v>
       </c>
     </row>
     <row r="3520" spans="1:2">
@@ -28879,7 +28879,7 @@
         <v>3567</v>
       </c>
       <c r="B3567">
-        <v>2124.922409442515</v>
+        <v>2124.922409442514</v>
       </c>
     </row>
     <row r="3568" spans="1:2">
@@ -29231,7 +29231,7 @@
         <v>3611</v>
       </c>
       <c r="B3611">
-        <v>1394.807132880168</v>
+        <v>1394.807132880167</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -29271,7 +29271,7 @@
         <v>3616</v>
       </c>
       <c r="B3616">
-        <v>1700.758057548602</v>
+        <v>1700.758057548601</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -29383,7 +29383,7 @@
         <v>3630</v>
       </c>
       <c r="B3630">
-        <v>880.1421511765924</v>
+        <v>880.1421511765923</v>
       </c>
     </row>
     <row r="3631" spans="1:2">
@@ -29391,7 +29391,7 @@
         <v>3631</v>
       </c>
       <c r="B3631">
-        <v>929.260857256234</v>
+        <v>929.2608572562336</v>
       </c>
     </row>
     <row r="3632" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>46.0092223594446</v>
+        <v>46.00922235944459</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29791,7 +29791,7 @@
         <v>3681</v>
       </c>
       <c r="B3681">
-        <v>67.25042509954159</v>
+        <v>67.25042509954157</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>72.20332565291832</v>
+        <v>72.20332565291831</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29847,7 +29847,7 @@
         <v>3688</v>
       </c>
       <c r="B3688">
-        <v>38.44300735432465</v>
+        <v>38.44300735432464</v>
       </c>
     </row>
     <row r="3689" spans="1:2">
@@ -29895,7 +29895,7 @@
         <v>3694</v>
       </c>
       <c r="B3694">
-        <v>7.083028783678992</v>
+        <v>7.083028783678991</v>
       </c>
     </row>
     <row r="3695" spans="1:2">
@@ -30063,7 +30063,7 @@
         <v>3715</v>
       </c>
       <c r="B3715">
-        <v>54.13168619594379</v>
+        <v>54.13168619594378</v>
       </c>
     </row>
     <row r="3716" spans="1:2">
@@ -30103,7 +30103,7 @@
         <v>3720</v>
       </c>
       <c r="B3720">
-        <v>4.381822327441238</v>
+        <v>4.381822327441237</v>
       </c>
     </row>
     <row r="3721" spans="1:2">
@@ -30215,7 +30215,7 @@
         <v>3734</v>
       </c>
       <c r="B3734">
-        <v>2024.470845586146</v>
+        <v>2024.470845586145</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -30415,7 +30415,7 @@
         <v>3759</v>
       </c>
       <c r="B3759">
-        <v>1899.192647902696</v>
+        <v>1899.192647902695</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -30447,7 +30447,7 @@
         <v>3763</v>
       </c>
       <c r="B3763">
-        <v>39.74717347636764</v>
+        <v>39.74717347636763</v>
       </c>
     </row>
     <row r="3764" spans="1:2">
@@ -30639,7 +30639,7 @@
         <v>3787</v>
       </c>
       <c r="B3787">
-        <v>30.31907816263216</v>
+        <v>30.31907816263215</v>
       </c>
     </row>
     <row r="3788" spans="1:2">
@@ -30735,7 +30735,7 @@
         <v>3799</v>
       </c>
       <c r="B3799">
-        <v>1103.696739467467</v>
+        <v>1103.696739467466</v>
       </c>
     </row>
     <row r="3800" spans="1:2">
@@ -31135,7 +31135,7 @@
         <v>3849</v>
       </c>
       <c r="B3849">
-        <v>18.07879039031788</v>
+        <v>18.07879039031787</v>
       </c>
     </row>
     <row r="3850" spans="1:2">
@@ -31151,7 +31151,7 @@
         <v>3851</v>
       </c>
       <c r="B3851">
-        <v>22.45832676365756</v>
+        <v>22.45832676365755</v>
       </c>
     </row>
     <row r="3852" spans="1:2">
@@ -31335,7 +31335,7 @@
         <v>3874</v>
       </c>
       <c r="B3874">
-        <v>1505.667114674595</v>
+        <v>1505.667114674594</v>
       </c>
     </row>
     <row r="3875" spans="1:2">
@@ -31415,7 +31415,7 @@
         <v>3884</v>
       </c>
       <c r="B3884">
-        <v>9.154630727560578</v>
+        <v>9.154630727560576</v>
       </c>
     </row>
     <row r="3885" spans="1:2">
@@ -31687,7 +31687,7 @@
         <v>3918</v>
       </c>
       <c r="B3918">
-        <v>841.4860811771609</v>
+        <v>841.4860811771608</v>
       </c>
     </row>
     <row r="3919" spans="1:2">
@@ -31791,7 +31791,7 @@
         <v>3931</v>
       </c>
       <c r="B3931">
-        <v>16.43820802299553</v>
+        <v>16.43820802299552</v>
       </c>
     </row>
     <row r="3932" spans="1:2">
@@ -31903,7 +31903,7 @@
         <v>3945</v>
       </c>
       <c r="B3945">
-        <v>943.2227615380604</v>
+        <v>943.2227615380602</v>
       </c>
     </row>
     <row r="3946" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>644.222895764596</v>
+        <v>644.2228957645959</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32087,7 +32087,7 @@
         <v>3968</v>
       </c>
       <c r="B3968">
-        <v>783.765740112809</v>
+        <v>783.7657401128089</v>
       </c>
     </row>
     <row r="3969" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>6.93239026980706</v>
+        <v>6.932390269807059</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32527,7 +32527,7 @@
         <v>4023</v>
       </c>
       <c r="B4023">
-        <v>43.15353815872845</v>
+        <v>43.15353815872844</v>
       </c>
     </row>
     <row r="4024" spans="1:2">
@@ -32567,7 +32567,7 @@
         <v>4028</v>
       </c>
       <c r="B4028">
-        <v>5.70975651071966</v>
+        <v>5.709756510719659</v>
       </c>
     </row>
     <row r="4029" spans="1:2">
@@ -32727,7 +32727,7 @@
         <v>4048</v>
       </c>
       <c r="B4048">
-        <v>1932.605970091515</v>
+        <v>1932.605970091514</v>
       </c>
     </row>
     <row r="4049" spans="1:2">
@@ -32863,7 +32863,7 @@
         <v>4065</v>
       </c>
       <c r="B4065">
-        <v>1486.796270495191</v>
+        <v>1486.79627049519</v>
       </c>
     </row>
     <row r="4066" spans="1:2">
@@ -33127,7 +33127,7 @@
         <v>4098</v>
       </c>
       <c r="B4098">
-        <v>1770.271870279725</v>
+        <v>1770.271870279724</v>
       </c>
     </row>
     <row r="4099" spans="1:2">
@@ -33135,7 +33135,7 @@
         <v>4099</v>
       </c>
       <c r="B4099">
-        <v>37.79326886161245</v>
+        <v>37.79326886161244</v>
       </c>
     </row>
     <row r="4100" spans="1:2">
@@ -33159,7 +33159,7 @@
         <v>4102</v>
       </c>
       <c r="B4102">
-        <v>6.343434710513221</v>
+        <v>6.34343471051322</v>
       </c>
     </row>
     <row r="4103" spans="1:2">
@@ -33543,7 +33543,7 @@
         <v>4150</v>
       </c>
       <c r="B4150">
-        <v>2.208193562870479</v>
+        <v>2.208193562870478</v>
       </c>
     </row>
     <row r="4151" spans="1:2">
@@ -33983,7 +33983,7 @@
         <v>4205</v>
       </c>
       <c r="B4205">
-        <v>1224.679394937257</v>
+        <v>1224.679394937256</v>
       </c>
     </row>
     <row r="4206" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>1434.732200477003</v>
+        <v>1434.732200477002</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34103,7 +34103,7 @@
         <v>4220</v>
       </c>
       <c r="B4220">
-        <v>6.937050099321776</v>
+        <v>6.937050099321775</v>
       </c>
     </row>
     <row r="4221" spans="1:2">
@@ -34191,7 +34191,7 @@
         <v>4231</v>
       </c>
       <c r="B4231">
-        <v>999.0850322172994</v>
+        <v>999.0850322172992</v>
       </c>
     </row>
     <row r="4232" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>1772.774696949893</v>
+        <v>1772.774696949892</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>1728.803138908053</v>
+        <v>1728.803138908052</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34671,7 +34671,7 @@
         <v>4291</v>
       </c>
       <c r="B4291">
-        <v>62.11845814154277</v>
+        <v>62.11845814154276</v>
       </c>
     </row>
     <row r="4292" spans="1:2">
@@ -34847,7 +34847,7 @@
         <v>4313</v>
       </c>
       <c r="B4313">
-        <v>2162.292190653262</v>
+        <v>2162.292190653261</v>
       </c>
     </row>
     <row r="4314" spans="1:2">
@@ -34975,7 +34975,7 @@
         <v>4329</v>
       </c>
       <c r="B4329">
-        <v>17.84055294299007</v>
+        <v>17.84055294299006</v>
       </c>
     </row>
     <row r="4330" spans="1:2">
@@ -35015,7 +35015,7 @@
         <v>4334</v>
       </c>
       <c r="B4334">
-        <v>47.91242568451138</v>
+        <v>47.91242568451137</v>
       </c>
     </row>
     <row r="4335" spans="1:2">
@@ -35023,7 +35023,7 @@
         <v>4335</v>
       </c>
       <c r="B4335">
-        <v>53.0845433748068</v>
+        <v>53.08454337480679</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35143,7 +35143,7 @@
         <v>4350</v>
       </c>
       <c r="B4350">
-        <v>29.03853356630528</v>
+        <v>29.03853356630527</v>
       </c>
     </row>
     <row r="4351" spans="1:2">
@@ -35175,7 +35175,7 @@
         <v>4354</v>
       </c>
       <c r="B4354">
-        <v>61.8816567423044</v>
+        <v>61.88165674230439</v>
       </c>
     </row>
     <row r="4355" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>61.3972103153972</v>
+        <v>61.39721031539719</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>68.90891410732614</v>
+        <v>68.90891410732613</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>2025.194760358743</v>
+        <v>2025.194760358742</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35479,7 +35479,7 @@
         <v>4392</v>
       </c>
       <c r="B4392">
-        <v>9.562907991519698</v>
+        <v>9.562907991519696</v>
       </c>
     </row>
     <row r="4393" spans="1:2">
@@ -35519,7 +35519,7 @@
         <v>4397</v>
       </c>
       <c r="B4397">
-        <v>2028.353450706331</v>
+        <v>2028.35345070633</v>
       </c>
     </row>
     <row r="4398" spans="1:2">
@@ -35535,7 +35535,7 @@
         <v>4399</v>
       </c>
       <c r="B4399">
-        <v>1923.536593729101</v>
+        <v>1923.5365937291</v>
       </c>
     </row>
     <row r="4400" spans="1:2">
@@ -35543,7 +35543,7 @@
         <v>4400</v>
       </c>
       <c r="B4400">
-        <v>1935.136785045875</v>
+        <v>1935.136785045874</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -35631,7 +35631,7 @@
         <v>4411</v>
       </c>
       <c r="B4411">
-        <v>52.86503316684945</v>
+        <v>52.86503316684944</v>
       </c>
     </row>
     <row r="4412" spans="1:2">
@@ -35655,7 +35655,7 @@
         <v>4414</v>
       </c>
       <c r="B4414">
-        <v>24.15714234636191</v>
+        <v>24.1571423463619</v>
       </c>
     </row>
     <row r="4415" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>1943.418239920848</v>
+        <v>1943.418239920847</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -36031,7 +36031,7 @@
         <v>4461</v>
       </c>
       <c r="B4461">
-        <v>8.651046761828788</v>
+        <v>8.651046761828786</v>
       </c>
     </row>
     <row r="4462" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>26.53755324368095</v>
+        <v>26.53755324368094</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36367,7 +36367,7 @@
         <v>4503</v>
       </c>
       <c r="B4503">
-        <v>38.73080311429009</v>
+        <v>38.73080311429008</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>47.28349523554413</v>
+        <v>47.28349523554412</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36415,7 +36415,7 @@
         <v>4509</v>
       </c>
       <c r="B4509">
-        <v>18.8836806908974</v>
+        <v>18.88368069089739</v>
       </c>
     </row>
     <row r="4510" spans="1:2">
@@ -36527,7 +36527,7 @@
         <v>4523</v>
       </c>
       <c r="B4523">
-        <v>47.13021908232425</v>
+        <v>47.13021908232424</v>
       </c>
     </row>
     <row r="4524" spans="1:2">
@@ -36775,7 +36775,7 @@
         <v>4554</v>
       </c>
       <c r="B4554">
-        <v>1982.251910969708</v>
+        <v>1982.251910969707</v>
       </c>
     </row>
     <row r="4555" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>1987.685154955451</v>
+        <v>1987.68515495545</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37359,7 +37359,7 @@
         <v>4627</v>
       </c>
       <c r="B4627">
-        <v>22.14280648343475</v>
+        <v>22.14280648343474</v>
       </c>
     </row>
     <row r="4628" spans="1:2">
@@ -37583,7 +37583,7 @@
         <v>4655</v>
       </c>
       <c r="B4655">
-        <v>2.643635581403119</v>
+        <v>2.643635581403118</v>
       </c>
     </row>
     <row r="4656" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>52.94914455494526</v>
+        <v>52.94914455494525</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37735,7 +37735,7 @@
         <v>4674</v>
       </c>
       <c r="B4674">
-        <v>72.12185190417047</v>
+        <v>72.12185190417046</v>
       </c>
     </row>
     <row r="4675" spans="1:2">
@@ -37799,7 +37799,7 @@
         <v>4682</v>
       </c>
       <c r="B4682">
-        <v>2.747221540017972</v>
+        <v>2.747221540017971</v>
       </c>
     </row>
     <row r="4683" spans="1:2">
@@ -37831,7 +37831,7 @@
         <v>4686</v>
       </c>
       <c r="B4686">
-        <v>52.27918416056542</v>
+        <v>52.27918416056541</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37839,7 +37839,7 @@
         <v>4687</v>
       </c>
       <c r="B4687">
-        <v>65.31439781814474</v>
+        <v>65.31439781814473</v>
       </c>
     </row>
     <row r="4688" spans="1:2">
@@ -37879,7 +37879,7 @@
         <v>4692</v>
       </c>
       <c r="B4692">
-        <v>88.4549939598059</v>
+        <v>88.45499395980589</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -37911,7 +37911,7 @@
         <v>4696</v>
       </c>
       <c r="B4696">
-        <v>70.22099314741298</v>
+        <v>70.22099314741297</v>
       </c>
     </row>
     <row r="4697" spans="1:2">
@@ -38015,7 +38015,7 @@
         <v>4709</v>
       </c>
       <c r="B4709">
-        <v>2494.315887205164</v>
+        <v>2494.315887205163</v>
       </c>
     </row>
     <row r="4710" spans="1:2">
@@ -38071,7 +38071,7 @@
         <v>4716</v>
       </c>
       <c r="B4716">
-        <v>2548.415042515816</v>
+        <v>2548.415042515815</v>
       </c>
     </row>
     <row r="4717" spans="1:2">
@@ -38111,7 +38111,7 @@
         <v>4721</v>
       </c>
       <c r="B4721">
-        <v>2668.158593634146</v>
+        <v>2668.158593634145</v>
       </c>
     </row>
     <row r="4722" spans="1:2">
@@ -38151,7 +38151,7 @@
         <v>4726</v>
       </c>
       <c r="B4726">
-        <v>30.72029241455954</v>
+        <v>30.72029241455953</v>
       </c>
     </row>
     <row r="4727" spans="1:2">
@@ -38239,7 +38239,7 @@
         <v>4737</v>
       </c>
       <c r="B4737">
-        <v>2044.141363401641</v>
+        <v>2044.14136340164</v>
       </c>
     </row>
     <row r="4738" spans="1:2">
@@ -38415,7 +38415,7 @@
         <v>4759</v>
       </c>
       <c r="B4759">
-        <v>1452.026322468409</v>
+        <v>1452.026322468408</v>
       </c>
     </row>
     <row r="4760" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>1834.518317232988</v>
+        <v>1834.518317232987</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38511,7 +38511,7 @@
         <v>4771</v>
       </c>
       <c r="B4771">
-        <v>32.93503025372333</v>
+        <v>32.93503025372332</v>
       </c>
     </row>
     <row r="4772" spans="1:2">
@@ -38615,7 +38615,7 @@
         <v>4784</v>
       </c>
       <c r="B4784">
-        <v>1383.350985978896</v>
+        <v>1383.350985978895</v>
       </c>
     </row>
     <row r="4785" spans="1:2">
@@ -38791,7 +38791,7 @@
         <v>4806</v>
       </c>
       <c r="B4806">
-        <v>1232.897106861321</v>
+        <v>1232.89710686132</v>
       </c>
     </row>
     <row r="4807" spans="1:2">
@@ -38911,7 +38911,7 @@
         <v>4821</v>
       </c>
       <c r="B4821">
-        <v>8.009455643991371</v>
+        <v>8.00945564399137</v>
       </c>
     </row>
     <row r="4822" spans="1:2">
@@ -39039,7 +39039,7 @@
         <v>4837</v>
       </c>
       <c r="B4837">
-        <v>15.83023215329257</v>
+        <v>15.83023215329256</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>56.52871422115493</v>
+        <v>56.52871422115492</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39247,7 +39247,7 @@
         <v>4863</v>
       </c>
       <c r="B4863">
-        <v>58.85980126266727</v>
+        <v>58.85980126266726</v>
       </c>
     </row>
     <row r="4864" spans="1:2">
@@ -39775,7 +39775,7 @@
         <v>4929</v>
       </c>
       <c r="B4929">
-        <v>1617.453200951192</v>
+        <v>1617.453200951191</v>
       </c>
     </row>
     <row r="4930" spans="1:2">
@@ -39855,7 +39855,7 @@
         <v>4939</v>
       </c>
       <c r="B4939">
-        <v>52.45531985480089</v>
+        <v>52.45531985480088</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -39943,7 +39943,7 @@
         <v>4950</v>
       </c>
       <c r="B4950">
-        <v>1688.540512088888</v>
+        <v>1688.540512088887</v>
       </c>
     </row>
     <row r="4951" spans="1:2">
@@ -39983,7 +39983,7 @@
         <v>4955</v>
       </c>
       <c r="B4955">
-        <v>1999.128992873099</v>
+        <v>1999.128992873098</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>2119.595843314845</v>
+        <v>2119.595843314844</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40167,7 +40167,7 @@
         <v>4978</v>
       </c>
       <c r="B4978">
-        <v>2050.383307611466</v>
+        <v>2050.383307611465</v>
       </c>
     </row>
     <row r="4979" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>2378.255359829691</v>
+        <v>2378.25535982969</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40471,7 +40471,7 @@
         <v>5016</v>
       </c>
       <c r="B5016">
-        <v>21.600683676119</v>
+        <v>21.60068367611899</v>
       </c>
     </row>
     <row r="5017" spans="1:2">
@@ -40487,7 +40487,7 @@
         <v>5018</v>
       </c>
       <c r="B5018">
-        <v>8.715874075580677</v>
+        <v>8.715874075580675</v>
       </c>
     </row>
     <row r="5019" spans="1:2">
@@ -40567,7 +40567,7 @@
         <v>5028</v>
       </c>
       <c r="B5028">
-        <v>74.26654576509419</v>
+        <v>74.26654576509418</v>
       </c>
     </row>
     <row r="5029" spans="1:2">
@@ -40623,7 +40623,7 @@
         <v>5035</v>
       </c>
       <c r="B5035">
-        <v>61.47399492752647</v>
+        <v>61.47399492752646</v>
       </c>
     </row>
     <row r="5036" spans="1:2">
@@ -40631,7 +40631,7 @@
         <v>5036</v>
       </c>
       <c r="B5036">
-        <v>50.51636186301743</v>
+        <v>50.51636186301742</v>
       </c>
     </row>
     <row r="5037" spans="1:2">
@@ -40767,7 +40767,7 @@
         <v>5053</v>
       </c>
       <c r="B5053">
-        <v>2537.177819680424</v>
+        <v>2537.177819680423</v>
       </c>
     </row>
     <row r="5054" spans="1:2">
@@ -40879,7 +40879,7 @@
         <v>5067</v>
       </c>
       <c r="B5067">
-        <v>7.620227997545237</v>
+        <v>7.620227997545236</v>
       </c>
     </row>
     <row r="5068" spans="1:2">
@@ -40975,7 +40975,7 @@
         <v>5079</v>
       </c>
       <c r="B5079">
-        <v>2691.549472442824</v>
+        <v>2691.549472442823</v>
       </c>
     </row>
     <row r="5080" spans="1:2">
@@ -41007,7 +41007,7 @@
         <v>5083</v>
       </c>
       <c r="B5083">
-        <v>78.99817768428161</v>
+        <v>78.9981776842816</v>
       </c>
     </row>
     <row r="5084" spans="1:2">
@@ -41087,7 +41087,7 @@
         <v>5093</v>
       </c>
       <c r="B5093">
-        <v>2210.361614493184</v>
+        <v>2210.361614493183</v>
       </c>
     </row>
     <row r="5094" spans="1:2">
@@ -41199,7 +41199,7 @@
         <v>5107</v>
       </c>
       <c r="B5107">
-        <v>78.96447451483556</v>
+        <v>78.96447451483554</v>
       </c>
     </row>
     <row r="5108" spans="1:2">
@@ -41231,7 +41231,7 @@
         <v>5111</v>
       </c>
       <c r="B5111">
-        <v>45.01102240176406</v>
+        <v>45.01102240176405</v>
       </c>
     </row>
     <row r="5112" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>2415.612832056814</v>
+        <v>2415.612832056813</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41583,7 +41583,7 @@
         <v>5155</v>
       </c>
       <c r="B5155">
-        <v>68.62668669709527</v>
+        <v>68.62668669709525</v>
       </c>
     </row>
     <row r="5156" spans="1:2">
@@ -41607,7 +41607,7 @@
         <v>5158</v>
       </c>
       <c r="B5158">
-        <v>38.63907187918909</v>
+        <v>38.63907187918908</v>
       </c>
     </row>
     <row r="5159" spans="1:2">
@@ -41719,7 +41719,7 @@
         <v>5172</v>
       </c>
       <c r="B5172">
-        <v>63.170583170337</v>
+        <v>63.17058317033699</v>
       </c>
     </row>
     <row r="5173" spans="1:2">
@@ -41767,7 +41767,7 @@
         <v>5178</v>
       </c>
       <c r="B5178">
-        <v>78.48090730104434</v>
+        <v>78.48090730104433</v>
       </c>
     </row>
     <row r="5179" spans="1:2">
@@ -41775,7 +41775,7 @@
         <v>5179</v>
       </c>
       <c r="B5179">
-        <v>67.01860590796046</v>
+        <v>67.01860590796045</v>
       </c>
     </row>
     <row r="5180" spans="1:2">
@@ -42047,7 +42047,7 @@
         <v>5213</v>
       </c>
       <c r="B5213">
-        <v>2386.606419076346</v>
+        <v>2386.606419076345</v>
       </c>
     </row>
     <row r="5214" spans="1:2">
@@ -42239,7 +42239,7 @@
         <v>5237</v>
       </c>
       <c r="B5237">
-        <v>2013.260292215272</v>
+        <v>2013.260292215271</v>
       </c>
     </row>
     <row r="5238" spans="1:2">
@@ -42279,7 +42279,7 @@
         <v>5242</v>
       </c>
       <c r="B5242">
-        <v>2063.403281575035</v>
+        <v>2063.403281575034</v>
       </c>
     </row>
     <row r="5243" spans="1:2">
@@ -42439,7 +42439,7 @@
         <v>5262</v>
       </c>
       <c r="B5262">
-        <v>856.8928256795879</v>
+        <v>856.8928256795878</v>
       </c>
     </row>
     <row r="5263" spans="1:2">
@@ -42455,7 +42455,7 @@
         <v>5264</v>
       </c>
       <c r="B5264">
-        <v>954.5470264719348</v>
+        <v>954.5470264719346</v>
       </c>
     </row>
     <row r="5265" spans="1:2">
@@ -42727,7 +42727,7 @@
         <v>5298</v>
       </c>
       <c r="B5298">
-        <v>1216.073275965655</v>
+        <v>1216.073275965654</v>
       </c>
     </row>
     <row r="5299" spans="1:2">
@@ -42823,7 +42823,7 @@
         <v>5310</v>
       </c>
       <c r="B5310">
-        <v>750.7659411595415</v>
+        <v>750.7659411595414</v>
       </c>
     </row>
     <row r="5311" spans="1:2">
@@ -42839,7 +42839,7 @@
         <v>5312</v>
       </c>
       <c r="B5312">
-        <v>793.4546686509531</v>
+        <v>793.454668650953</v>
       </c>
     </row>
     <row r="5313" spans="1:2">
@@ -43391,7 +43391,7 @@
         <v>5381</v>
       </c>
       <c r="B5381">
-        <v>1821.544941564566</v>
+        <v>1821.544941564565</v>
       </c>
     </row>
     <row r="5382" spans="1:2">
@@ -43503,7 +43503,7 @@
         <v>5395</v>
       </c>
       <c r="B5395">
-        <v>27.57139063966272</v>
+        <v>27.57139063966271</v>
       </c>
     </row>
     <row r="5396" spans="1:2">
@@ -43687,7 +43687,7 @@
         <v>5418</v>
       </c>
       <c r="B5418">
-        <v>1856.574550531602</v>
+        <v>1856.574550531601</v>
       </c>
     </row>
     <row r="5419" spans="1:2">
@@ -43695,7 +43695,7 @@
         <v>5419</v>
       </c>
       <c r="B5419">
-        <v>42.08119122826659</v>
+        <v>42.08119122826658</v>
       </c>
     </row>
     <row r="5420" spans="1:2">
@@ -43871,7 +43871,7 @@
         <v>5441</v>
       </c>
       <c r="B5441">
-        <v>1743.179797323793</v>
+        <v>1743.179797323792</v>
       </c>
     </row>
     <row r="5442" spans="1:2">
@@ -44423,7 +44423,7 @@
         <v>5510</v>
       </c>
       <c r="B5510">
-        <v>52.46762883842467</v>
+        <v>52.46762883842466</v>
       </c>
     </row>
     <row r="5511" spans="1:2">
@@ -44431,7 +44431,7 @@
         <v>5511</v>
       </c>
       <c r="B5511">
-        <v>56.6002235545883</v>
+        <v>56.60022355458829</v>
       </c>
     </row>
     <row r="5512" spans="1:2">
@@ -44455,7 +44455,7 @@
         <v>5514</v>
       </c>
       <c r="B5514">
-        <v>48.65389541232458</v>
+        <v>48.65389541232457</v>
       </c>
     </row>
     <row r="5515" spans="1:2">
@@ -44575,7 +44575,7 @@
         <v>5529</v>
       </c>
       <c r="B5529">
-        <v>56.72243417771008</v>
+        <v>56.72243417771007</v>
       </c>
     </row>
     <row r="5530" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>65.76543414664455</v>
+        <v>65.76543414664454</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44623,7 +44623,7 @@
         <v>5535</v>
       </c>
       <c r="B5535">
-        <v>71.11515288636875</v>
+        <v>71.11515288636873</v>
       </c>
     </row>
     <row r="5536" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>2247.140066269224</v>
+        <v>2247.140066269223</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44847,7 +44847,7 @@
         <v>5563</v>
       </c>
       <c r="B5563">
-        <v>44.44246458676105</v>
+        <v>44.44246458676104</v>
       </c>
     </row>
     <row r="5564" spans="1:2">
@@ -45143,7 +45143,7 @@
         <v>5600</v>
       </c>
       <c r="B5600">
-        <v>906.9200519790796</v>
+        <v>906.9200519790794</v>
       </c>
     </row>
     <row r="5601" spans="1:2">
@@ -45319,7 +45319,7 @@
         <v>5622</v>
       </c>
       <c r="B5622">
-        <v>812.6713366559775</v>
+        <v>812.6713366559774</v>
       </c>
     </row>
     <row r="5623" spans="1:2">
@@ -45527,7 +45527,7 @@
         <v>5648</v>
       </c>
       <c r="B5648">
-        <v>934.6035422910302</v>
+        <v>934.60354229103</v>
       </c>
     </row>
     <row r="5649" spans="1:2">
@@ -45783,7 +45783,7 @@
         <v>5680</v>
       </c>
       <c r="B5680">
-        <v>40.88868517195358</v>
+        <v>40.88868517195357</v>
       </c>
     </row>
     <row r="5681" spans="1:2">
@@ -45951,7 +45951,7 @@
         <v>5701</v>
       </c>
       <c r="B5701">
-        <v>68.2518488386474</v>
+        <v>68.25184883864739</v>
       </c>
     </row>
     <row r="5702" spans="1:2">
@@ -46079,7 +46079,7 @@
         <v>5717</v>
       </c>
       <c r="B5717">
-        <v>1932.703855818428</v>
+        <v>1932.703855818427</v>
       </c>
     </row>
     <row r="5718" spans="1:2">
@@ -46103,7 +46103,7 @@
         <v>5720</v>
       </c>
       <c r="B5720">
-        <v>1700.623831012895</v>
+        <v>1700.623831012894</v>
       </c>
     </row>
     <row r="5721" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>1401.538974638219</v>
+        <v>1401.538974638218</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>1703.916542746463</v>
+        <v>1703.916542746462</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46663,7 +46663,7 @@
         <v>5790</v>
       </c>
       <c r="B5790">
-        <v>969.792581903098</v>
+        <v>969.7925819030978</v>
       </c>
     </row>
     <row r="5791" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>947.5836585933412</v>
+        <v>947.5836585933411</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -46679,7 +46679,7 @@
         <v>5792</v>
       </c>
       <c r="B5792">
-        <v>982.7697674950224</v>
+        <v>982.7697674950222</v>
       </c>
     </row>
     <row r="5793" spans="1:2">
@@ -46847,7 +46847,7 @@
         <v>5813</v>
       </c>
       <c r="B5813">
-        <v>715.2662462464928</v>
+        <v>715.2662462464926</v>
       </c>
     </row>
     <row r="5814" spans="1:2">
@@ -47127,7 +47127,7 @@
         <v>5848</v>
       </c>
       <c r="B5848">
-        <v>47.77526843841787</v>
+        <v>47.77526843841786</v>
       </c>
     </row>
     <row r="5849" spans="1:2">
@@ -47135,7 +47135,7 @@
         <v>5849</v>
       </c>
       <c r="B5849">
-        <v>54.12142870959064</v>
+        <v>54.12142870959063</v>
       </c>
     </row>
     <row r="5850" spans="1:2">
@@ -47263,7 +47263,7 @@
         <v>5865</v>
       </c>
       <c r="B5865">
-        <v>69.42413299329279</v>
+        <v>69.42413299329277</v>
       </c>
     </row>
     <row r="5866" spans="1:2">
@@ -47615,7 +47615,7 @@
         <v>5909</v>
       </c>
       <c r="B5909">
-        <v>1775.676393303679</v>
+        <v>1775.676393303678</v>
       </c>
     </row>
     <row r="5910" spans="1:2">
@@ -48271,7 +48271,7 @@
         <v>5991</v>
       </c>
       <c r="B5991">
-        <v>2176.588488990201</v>
+        <v>2176.5884889902</v>
       </c>
     </row>
     <row r="5992" spans="1:2">
@@ -48295,7 +48295,7 @@
         <v>5994</v>
       </c>
       <c r="B5994">
-        <v>1620.800365283743</v>
+        <v>1620.800365283742</v>
       </c>
     </row>
     <row r="5995" spans="1:2">
@@ -48463,7 +48463,7 @@
         <v>6015</v>
       </c>
       <c r="B6015">
-        <v>48.62312295326514</v>
+        <v>48.62312295326513</v>
       </c>
     </row>
     <row r="6016" spans="1:2">
@@ -48471,7 +48471,7 @@
         <v>6016</v>
       </c>
       <c r="B6016">
-        <v>49.09203661512329</v>
+        <v>49.09203661512328</v>
       </c>
     </row>
     <row r="6017" spans="1:2">
@@ -48615,7 +48615,7 @@
         <v>6034</v>
       </c>
       <c r="B6034">
-        <v>42.28985780779347</v>
+        <v>42.28985780779346</v>
       </c>
     </row>
     <row r="6035" spans="1:2">
@@ -48887,7 +48887,7 @@
         <v>6068</v>
       </c>
       <c r="B6068">
-        <v>5.377062267631301</v>
+        <v>5.3770622676313</v>
       </c>
     </row>
     <row r="6069" spans="1:2">
@@ -49167,7 +49167,7 @@
         <v>6103</v>
       </c>
       <c r="B6103">
-        <v>971.263798517178</v>
+        <v>971.2637985171776</v>
       </c>
     </row>
     <row r="6104" spans="1:2">
@@ -49263,7 +49263,7 @@
         <v>6115</v>
       </c>
       <c r="B6115">
-        <v>9.760262028954248</v>
+        <v>9.760262028954246</v>
       </c>
     </row>
     <row r="6116" spans="1:2">
@@ -49343,7 +49343,7 @@
         <v>6125</v>
       </c>
       <c r="B6125">
-        <v>948.251860561489</v>
+        <v>948.2518605614888</v>
       </c>
     </row>
     <row r="6126" spans="1:2">
@@ -49359,7 +49359,7 @@
         <v>6127</v>
       </c>
       <c r="B6127">
-        <v>906.6943872793104</v>
+        <v>906.69438727931</v>
       </c>
     </row>
     <row r="6128" spans="1:2">
@@ -49399,7 +49399,7 @@
         <v>6132</v>
       </c>
       <c r="B6132">
-        <v>1315.320142010503</v>
+        <v>1315.320142010502</v>
       </c>
     </row>
     <row r="6133" spans="1:2">
@@ -50039,7 +50039,7 @@
         <v>6212</v>
       </c>
       <c r="B6212">
-        <v>7.234048289901183</v>
+        <v>7.234048289901182</v>
       </c>
     </row>
     <row r="6213" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>1805.417535378071</v>
+        <v>1805.41753537807</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50175,7 +50175,7 @@
         <v>6229</v>
       </c>
       <c r="B6229">
-        <v>1921.717296642403</v>
+        <v>1921.717296642402</v>
       </c>
     </row>
     <row r="6230" spans="1:2">
@@ -50255,7 +50255,7 @@
         <v>6239</v>
       </c>
       <c r="B6239">
-        <v>7.366692241999308</v>
+        <v>7.366692241999307</v>
       </c>
     </row>
     <row r="6240" spans="1:2">
@@ -50391,7 +50391,7 @@
         <v>6256</v>
       </c>
       <c r="B6256">
-        <v>2005.304585799771</v>
+        <v>2005.30458579977</v>
       </c>
     </row>
     <row r="6257" spans="1:2">
@@ -50399,7 +50399,7 @@
         <v>6257</v>
       </c>
       <c r="B6257">
-        <v>1854.020729500707</v>
+        <v>1854.020729500706</v>
       </c>
     </row>
     <row r="6258" spans="1:2">
@@ -50535,7 +50535,7 @@
         <v>6274</v>
       </c>
       <c r="B6274">
-        <v>1329.853798581654</v>
+        <v>1329.853798581653</v>
       </c>
     </row>
     <row r="6275" spans="1:2">
@@ -50591,7 +50591,7 @@
         <v>6281</v>
       </c>
       <c r="B6281">
-        <v>1443.94365767896</v>
+        <v>1443.943657678959</v>
       </c>
     </row>
     <row r="6282" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>370.8139930870404</v>
+        <v>370.8139930870403</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50903,7 +50903,7 @@
         <v>6320</v>
       </c>
       <c r="B6320">
-        <v>331.771069316576</v>
+        <v>331.7710693165759</v>
       </c>
     </row>
     <row r="6321" spans="1:2">
@@ -50927,7 +50927,7 @@
         <v>6323</v>
       </c>
       <c r="B6323">
-        <v>492.0398975189193</v>
+        <v>492.0398975189192</v>
       </c>
     </row>
     <row r="6324" spans="1:2">
@@ -50983,7 +50983,7 @@
         <v>6330</v>
       </c>
       <c r="B6330">
-        <v>765.6217121092851</v>
+        <v>765.621712109285</v>
       </c>
     </row>
     <row r="6331" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>937.3554793440602</v>
+        <v>937.35547934406</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51535,7 +51535,7 @@
         <v>6399</v>
       </c>
       <c r="B6399">
-        <v>1178.892906567195</v>
+        <v>1178.892906567194</v>
       </c>
     </row>
     <row r="6400" spans="1:2">
@@ -51655,7 +51655,7 @@
         <v>6414</v>
       </c>
       <c r="B6414">
-        <v>666.1915008226505</v>
+        <v>666.1915008226504</v>
       </c>
     </row>
     <row r="6415" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>692.9547480732045</v>
+        <v>692.9547480732044</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -51855,7 +51855,7 @@
         <v>6439</v>
       </c>
       <c r="B6439">
-        <v>694.1592700421027</v>
+        <v>694.1592700421025</v>
       </c>
     </row>
     <row r="6440" spans="1:2">
@@ -51863,7 +51863,7 @@
         <v>6440</v>
       </c>
       <c r="B6440">
-        <v>703.1360359562997</v>
+        <v>703.1360359562996</v>
       </c>
     </row>
     <row r="6441" spans="1:2">
@@ -51927,7 +51927,7 @@
         <v>6448</v>
       </c>
       <c r="B6448">
-        <v>1431.998404521266</v>
+        <v>1431.998404521265</v>
       </c>
     </row>
     <row r="6449" spans="1:2">
@@ -52071,7 +52071,7 @@
         <v>6466</v>
       </c>
       <c r="B6466">
-        <v>970.8476376422788</v>
+        <v>970.8476376422786</v>
       </c>
     </row>
     <row r="6467" spans="1:2">
@@ -52263,7 +52263,7 @@
         <v>6490</v>
       </c>
       <c r="B6490">
-        <v>981.4743935041392</v>
+        <v>981.474393504139</v>
       </c>
     </row>
     <row r="6491" spans="1:2">
@@ -52479,7 +52479,7 @@
         <v>6517</v>
       </c>
       <c r="B6517">
-        <v>6.719884459673719</v>
+        <v>6.719884459673718</v>
       </c>
     </row>
     <row r="6518" spans="1:2">
@@ -52639,7 +52639,7 @@
         <v>6537</v>
       </c>
       <c r="B6537">
-        <v>36.10928267346436</v>
+        <v>36.10928267346435</v>
       </c>
     </row>
     <row r="6538" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>53.00541419436824</v>
+        <v>53.00541419436823</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -52815,7 +52815,7 @@
         <v>6559</v>
       </c>
       <c r="B6559">
-        <v>700.7533684119829</v>
+        <v>700.7533684119828</v>
       </c>
     </row>
     <row r="6560" spans="1:2">
@@ -52839,7 +52839,7 @@
         <v>6562</v>
       </c>
       <c r="B6562">
-        <v>699.7129662247352</v>
+        <v>699.7129662247351</v>
       </c>
     </row>
     <row r="6563" spans="1:2">
@@ -52863,7 +52863,7 @@
         <v>6565</v>
       </c>
       <c r="B6565">
-        <v>946.7484061331564</v>
+        <v>946.7484061331562</v>
       </c>
     </row>
     <row r="6566" spans="1:2">
@@ -52903,7 +52903,7 @@
         <v>6570</v>
       </c>
       <c r="B6570">
-        <v>693.2976411884383</v>
+        <v>693.2976411884382</v>
       </c>
     </row>
     <row r="6571" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>588.6742110967247</v>
+        <v>588.6742110967245</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53055,7 +53055,7 @@
         <v>6589</v>
       </c>
       <c r="B6589">
-        <v>720.5649706254899</v>
+        <v>720.5649706254898</v>
       </c>
     </row>
     <row r="6590" spans="1:2">
@@ -53063,7 +53063,7 @@
         <v>6590</v>
       </c>
       <c r="B6590">
-        <v>824.7546555799847</v>
+        <v>824.7546555799846</v>
       </c>
     </row>
     <row r="6591" spans="1:2">
@@ -53279,7 +53279,7 @@
         <v>6617</v>
       </c>
       <c r="B6617">
-        <v>720.8932101887906</v>
+        <v>720.8932101887905</v>
       </c>
     </row>
     <row r="6618" spans="1:2">
@@ -53407,7 +53407,7 @@
         <v>6633</v>
       </c>
       <c r="B6633">
-        <v>293.5633980062964</v>
+        <v>293.5633980062963</v>
       </c>
     </row>
     <row r="6634" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>588.2727037737586</v>
+        <v>588.2727037737585</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>878.401309206944</v>
+        <v>878.4013092069439</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53655,7 +53655,7 @@
         <v>6664</v>
       </c>
       <c r="B6664">
-        <v>1099.67873552742</v>
+        <v>1099.678735527419</v>
       </c>
     </row>
     <row r="6665" spans="1:2">
@@ -53671,7 +53671,7 @@
         <v>6666</v>
       </c>
       <c r="B6666">
-        <v>744.127882133862</v>
+        <v>744.1278821338619</v>
       </c>
     </row>
     <row r="6667" spans="1:2">
@@ -54535,7 +54535,7 @@
         <v>6774</v>
       </c>
       <c r="B6774">
-        <v>328.556080022461</v>
+        <v>328.5560800224609</v>
       </c>
     </row>
     <row r="6775" spans="1:2">
@@ -54543,7 +54543,7 @@
         <v>6775</v>
       </c>
       <c r="B6775">
-        <v>318.6649324676406</v>
+        <v>318.6649324676405</v>
       </c>
     </row>
     <row r="6776" spans="1:2">
@@ -54591,7 +54591,7 @@
         <v>6781</v>
       </c>
       <c r="B6781">
-        <v>662.3376166642538</v>
+        <v>662.3376166642537</v>
       </c>
     </row>
     <row r="6782" spans="1:2">
@@ -54623,7 +54623,7 @@
         <v>6785</v>
       </c>
       <c r="B6785">
-        <v>682.0290597519096</v>
+        <v>682.0290597519095</v>
       </c>
     </row>
     <row r="6786" spans="1:2">
@@ -54791,7 +54791,7 @@
         <v>6806</v>
       </c>
       <c r="B6806">
-        <v>571.1104637497502</v>
+        <v>571.1104637497501</v>
       </c>
     </row>
     <row r="6807" spans="1:2">
@@ -54807,7 +54807,7 @@
         <v>6808</v>
       </c>
       <c r="B6808">
-        <v>549.3792462330115</v>
+        <v>549.3792462330114</v>
       </c>
     </row>
     <row r="6809" spans="1:2">
@@ -55551,7 +55551,7 @@
         <v>6901</v>
       </c>
       <c r="B6901">
-        <v>529.0020169148881</v>
+        <v>529.002016914888</v>
       </c>
     </row>
     <row r="6902" spans="1:2">
@@ -55711,7 +55711,7 @@
         <v>6921</v>
       </c>
       <c r="B6921">
-        <v>237.3611649222102</v>
+        <v>237.3611649222101</v>
       </c>
     </row>
     <row r="6922" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>539.1833047979833</v>
+        <v>539.1833047979832</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55775,7 +55775,7 @@
         <v>6929</v>
       </c>
       <c r="B6929">
-        <v>699.7129662247352</v>
+        <v>699.7129662247351</v>
       </c>
     </row>
     <row r="6930" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>531.9796186676874</v>
+        <v>531.9796186676873</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -55935,7 +55935,7 @@
         <v>6949</v>
       </c>
       <c r="B6949">
-        <v>598.7646469578348</v>
+        <v>598.7646469578347</v>
       </c>
     </row>
     <row r="6950" spans="1:2">
@@ -55951,7 +55951,7 @@
         <v>6951</v>
       </c>
       <c r="B6951">
-        <v>766.3192211812991</v>
+        <v>766.319221181299</v>
       </c>
     </row>
     <row r="6952" spans="1:2">
@@ -56079,7 +56079,7 @@
         <v>6967</v>
       </c>
       <c r="B6967">
-        <v>354.9383349227553</v>
+        <v>354.9383349227552</v>
       </c>
     </row>
     <row r="6968" spans="1:2">
@@ -56103,7 +56103,7 @@
         <v>6970</v>
       </c>
       <c r="B6970">
-        <v>515.591086185745</v>
+        <v>515.5910861857449</v>
       </c>
     </row>
     <row r="6971" spans="1:2">
@@ -56127,7 +56127,7 @@
         <v>6973</v>
       </c>
       <c r="B6973">
-        <v>790.1048666790539</v>
+        <v>790.1048666790538</v>
       </c>
     </row>
     <row r="6974" spans="1:2">
@@ -56271,7 +56271,7 @@
         <v>6991</v>
       </c>
       <c r="B6991">
-        <v>544.7633773740953</v>
+        <v>544.7633773740952</v>
       </c>
     </row>
     <row r="6992" spans="1:2">
@@ -56311,7 +56311,7 @@
         <v>6996</v>
       </c>
       <c r="B6996">
-        <v>860.1664291814351</v>
+        <v>860.166429181435</v>
       </c>
     </row>
     <row r="6997" spans="1:2">
@@ -56319,7 +56319,7 @@
         <v>6997</v>
       </c>
       <c r="B6997">
-        <v>997.0423270778298</v>
+        <v>997.0423270778296</v>
       </c>
     </row>
     <row r="6998" spans="1:2">
@@ -56863,7 +56863,7 @@
         <v>7065</v>
       </c>
       <c r="B7065">
-        <v>800.3740758737474</v>
+        <v>800.3740758737473</v>
       </c>
     </row>
     <row r="7066" spans="1:2">
@@ -56871,7 +56871,7 @@
         <v>7066</v>
       </c>
       <c r="B7066">
-        <v>900.8446893476298</v>
+        <v>900.8446893476296</v>
       </c>
     </row>
     <row r="7067" spans="1:2">
@@ -57031,7 +57031,7 @@
         <v>7086</v>
       </c>
       <c r="B7086">
-        <v>746.167656562945</v>
+        <v>746.1676565629449</v>
       </c>
     </row>
     <row r="7087" spans="1:2">
@@ -57039,7 +57039,7 @@
         <v>7087</v>
       </c>
       <c r="B7087">
-        <v>723.6920386080064</v>
+        <v>723.6920386080063</v>
       </c>
     </row>
     <row r="7088" spans="1:2">
@@ -57055,7 +57055,7 @@
         <v>7089</v>
       </c>
       <c r="B7089">
-        <v>791.3416264622048</v>
+        <v>791.3416264622047</v>
       </c>
     </row>
     <row r="7090" spans="1:2">
@@ -57063,7 +57063,7 @@
         <v>7090</v>
       </c>
       <c r="B7090">
-        <v>895.0418827821352</v>
+        <v>895.0418827821351</v>
       </c>
     </row>
     <row r="7091" spans="1:2">
@@ -57127,7 +57127,7 @@
         <v>7098</v>
       </c>
       <c r="B7098">
-        <v>985.1817421432052</v>
+        <v>985.181742143205</v>
       </c>
     </row>
     <row r="7099" spans="1:2">
@@ -57215,7 +57215,7 @@
         <v>7109</v>
       </c>
       <c r="B7109">
-        <v>946.3029381543912</v>
+        <v>946.302938154391</v>
       </c>
     </row>
     <row r="7110" spans="1:2">
@@ -57231,7 +57231,7 @@
         <v>7111</v>
       </c>
       <c r="B7111">
-        <v>911.6971099092594</v>
+        <v>911.6971099092592</v>
       </c>
     </row>
     <row r="7112" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>584.1491942597935</v>
+        <v>584.1491942597934</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>715.2662462464928</v>
+        <v>715.2662462464926</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>651.0983423315912</v>
+        <v>651.0983423315911</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58559,7 +58559,7 @@
         <v>7277</v>
       </c>
       <c r="B7277">
-        <v>114.5608828706426</v>
+        <v>114.5608828706425</v>
       </c>
     </row>
     <row r="7278" spans="1:2">
@@ -58583,7 +58583,7 @@
         <v>7280</v>
       </c>
       <c r="B7280">
-        <v>141.0076133994424</v>
+        <v>141.0076133994423</v>
       </c>
     </row>
     <row r="7281" spans="1:2">
@@ -58607,7 +58607,7 @@
         <v>7283</v>
       </c>
       <c r="B7283">
-        <v>275.1488654340881</v>
+        <v>275.148865434088</v>
       </c>
     </row>
     <row r="7284" spans="1:2">
@@ -58807,7 +58807,7 @@
         <v>7308</v>
       </c>
       <c r="B7308">
-        <v>398.1194217591179</v>
+        <v>398.1194217591178</v>
       </c>
     </row>
     <row r="7309" spans="1:2">
@@ -58839,7 +58839,7 @@
         <v>7312</v>
       </c>
       <c r="B7312">
-        <v>451.1828640191411</v>
+        <v>451.182864019141</v>
       </c>
     </row>
     <row r="7313" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>85.92491168304251</v>
+        <v>85.9249116830425</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59015,7 +59015,7 @@
         <v>7334</v>
       </c>
       <c r="B7334">
-        <v>434.7943315371987</v>
+        <v>434.7943315371986</v>
       </c>
     </row>
     <row r="7335" spans="1:2">
@@ -59047,7 +59047,7 @@
         <v>7338</v>
       </c>
       <c r="B7338">
-        <v>379.2896075251265</v>
+        <v>379.2896075251264</v>
       </c>
     </row>
     <row r="7339" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>75.90510594224978</v>
+        <v>75.90510594224976</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59735,7 +59735,7 @@
         <v>7424</v>
       </c>
       <c r="B7424">
-        <v>287.8291700638485</v>
+        <v>287.8291700638484</v>
       </c>
     </row>
     <row r="7425" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>806.5813204725947</v>
+        <v>806.5813204725946</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>717.5580617688245</v>
+        <v>717.5580617688244</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>197.1345272265926</v>
+        <v>197.1345272265925</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -60375,7 +60375,7 @@
         <v>7504</v>
       </c>
       <c r="B7504">
-        <v>212.7449561008892</v>
+        <v>212.7449561008891</v>
       </c>
     </row>
     <row r="7505" spans="1:2">
@@ -61311,7 +61311,7 @@
         <v>7621</v>
       </c>
       <c r="B7621">
-        <v>190.8707199172837</v>
+        <v>190.8707199172836</v>
       </c>
     </row>
     <row r="7622" spans="1:2">
@@ -61671,7 +61671,7 @@
         <v>7666</v>
       </c>
       <c r="B7666">
-        <v>124.8098701636685</v>
+        <v>124.8098701636684</v>
       </c>
     </row>
     <row r="7667" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>346.0905202655693</v>
+        <v>346.0905202655692</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -62279,7 +62279,7 @@
         <v>7742</v>
       </c>
       <c r="B7742">
-        <v>471.7447280916211</v>
+        <v>471.744728091621</v>
       </c>
     </row>
     <row r="7743" spans="1:2">
@@ -62471,7 +62471,7 @@
         <v>7766</v>
       </c>
       <c r="B7766">
-        <v>530.1772317799201</v>
+        <v>530.17723177992</v>
       </c>
     </row>
     <row r="7767" spans="1:2">
@@ -62495,7 +62495,7 @@
         <v>7769</v>
       </c>
       <c r="B7769">
-        <v>568.1035548930848</v>
+        <v>568.1035548930847</v>
       </c>
     </row>
     <row r="7770" spans="1:2">
@@ -62503,7 +62503,7 @@
         <v>7770</v>
       </c>
       <c r="B7770">
-        <v>547.6677113672292</v>
+        <v>547.6677113672291</v>
       </c>
     </row>
     <row r="7771" spans="1:2">
@@ -62695,7 +62695,7 @@
         <v>7794</v>
       </c>
       <c r="B7794">
-        <v>516.7223403949778</v>
+        <v>516.7223403949777</v>
       </c>
     </row>
     <row r="7795" spans="1:2">
@@ -63015,7 +63015,7 @@
         <v>7834</v>
       </c>
       <c r="B7834">
-        <v>749.1716347092238</v>
+        <v>749.1716347092237</v>
       </c>
     </row>
     <row r="7835" spans="1:2">
@@ -63559,7 +63559,7 @@
         <v>7902</v>
       </c>
       <c r="B7902">
-        <v>76.12373693709114</v>
+        <v>76.12373693709112</v>
       </c>
     </row>
     <row r="7903" spans="1:2">
@@ -63615,7 +63615,7 @@
         <v>7909</v>
       </c>
       <c r="B7909">
-        <v>343.8426653990368</v>
+        <v>343.8426653990367</v>
       </c>
     </row>
     <row r="7910" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>426.1018445305032</v>
+        <v>426.1018445305031</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63767,7 +63767,7 @@
         <v>7928</v>
       </c>
       <c r="B7928">
-        <v>149.4363364713427</v>
+        <v>149.4363364713426</v>
       </c>
     </row>
     <row r="7929" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>505.8376820190954</v>
+        <v>505.8376820190953</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63943,7 +63943,7 @@
         <v>7950</v>
       </c>
       <c r="B7950">
-        <v>674.587986080298</v>
+        <v>674.5879860802979</v>
       </c>
     </row>
     <row r="7951" spans="1:2">
@@ -63951,7 +63951,7 @@
         <v>7951</v>
       </c>
       <c r="B7951">
-        <v>659.4655204853726</v>
+        <v>659.4655204853725</v>
       </c>
     </row>
     <row r="7952" spans="1:2">
@@ -63991,7 +63991,7 @@
         <v>7956</v>
       </c>
       <c r="B7956">
-        <v>838.7634512279971</v>
+        <v>838.7634512279969</v>
       </c>
     </row>
     <row r="7957" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>645.1460695363793</v>
+        <v>645.1460695363792</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64199,7 +64199,7 @@
         <v>7982</v>
       </c>
       <c r="B7982">
-        <v>805.1833716181801</v>
+        <v>805.18337161818</v>
       </c>
     </row>
     <row r="7983" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>80.77067132610543</v>
+        <v>80.77067132610541</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>362.5816276110432</v>
+        <v>362.5816276110431</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -65095,7 +65095,7 @@
         <v>8094</v>
       </c>
       <c r="B8094">
-        <v>79.67048264697074</v>
+        <v>79.67048264697073</v>
       </c>
     </row>
     <row r="8095" spans="1:2">
@@ -65151,7 +65151,7 @@
         <v>8101</v>
       </c>
       <c r="B8101">
-        <v>359.4867974427794</v>
+        <v>359.4867974427793</v>
       </c>
     </row>
     <row r="8102" spans="1:2">
@@ -65191,7 +65191,7 @@
         <v>8106</v>
       </c>
       <c r="B8106">
-        <v>448.2580150533009</v>
+        <v>448.2580150533008</v>
       </c>
     </row>
     <row r="8107" spans="1:2">
@@ -65199,7 +65199,7 @@
         <v>8107</v>
       </c>
       <c r="B8107">
-        <v>431.7434620247341</v>
+        <v>431.743462024734</v>
       </c>
     </row>
     <row r="8108" spans="1:2">
@@ -65487,7 +65487,7 @@
         <v>8143</v>
       </c>
       <c r="B8143">
-        <v>4.170312958839346</v>
+        <v>4.170312958839345</v>
       </c>
     </row>
     <row r="8144" spans="1:2">
@@ -66311,7 +66311,7 @@
         <v>8246</v>
       </c>
       <c r="B8246">
-        <v>203.375474994886</v>
+        <v>203.3754749948859</v>
       </c>
     </row>
     <row r="8247" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>222.3069848792929</v>
+        <v>222.3069848792928</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66735,7 +66735,7 @@
         <v>8299</v>
       </c>
       <c r="B8299">
-        <v>143.6528725943997</v>
+        <v>143.6528725943996</v>
       </c>
     </row>
     <row r="8300" spans="1:2">
@@ -66839,7 +66839,7 @@
         <v>8312</v>
       </c>
       <c r="B8312">
-        <v>0.2655847851584137</v>
+        <v>0.2655847851584136</v>
       </c>
     </row>
     <row r="8313" spans="1:2">
@@ -67623,7 +67623,7 @@
         <v>8410</v>
       </c>
       <c r="B8410">
-        <v>181.9437760796591</v>
+        <v>181.943776079659</v>
       </c>
     </row>
     <row r="8411" spans="1:2">
@@ -67695,7 +67695,7 @@
         <v>8419</v>
       </c>
       <c r="B8419">
-        <v>289.7616804927814</v>
+        <v>289.7616804927813</v>
       </c>
     </row>
     <row r="8420" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>175.5873583221332</v>
+        <v>175.5873583221331</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -67823,7 +67823,7 @@
         <v>8435</v>
       </c>
       <c r="B8435">
-        <v>208.6141198109575</v>
+        <v>208.6141198109574</v>
       </c>
     </row>
     <row r="8436" spans="1:2">
@@ -67871,7 +67871,7 @@
         <v>8441</v>
       </c>
       <c r="B8441">
-        <v>342.4886772004214</v>
+        <v>342.4886772004213</v>
       </c>
     </row>
     <row r="8442" spans="1:2">
@@ -68063,7 +68063,7 @@
         <v>8465</v>
       </c>
       <c r="B8465">
-        <v>273.5876760111391</v>
+        <v>273.587676011139</v>
       </c>
     </row>
     <row r="8466" spans="1:2">
@@ -68223,7 +68223,7 @@
         <v>8485</v>
       </c>
       <c r="B8485">
-        <v>181.1773953135597</v>
+        <v>181.1773953135596</v>
       </c>
     </row>
     <row r="8486" spans="1:2">
@@ -69391,7 +69391,7 @@
         <v>8631</v>
       </c>
       <c r="B8631">
-        <v>241.0913731022918</v>
+        <v>241.0913731022917</v>
       </c>
     </row>
     <row r="8632" spans="1:2">
@@ -69575,7 +69575,7 @@
         <v>8654</v>
       </c>
       <c r="B8654">
-        <v>299.5830771404004</v>
+        <v>299.5830771404003</v>
       </c>
     </row>
     <row r="8655" spans="1:2">
@@ -69719,7 +69719,7 @@
         <v>8672</v>
       </c>
       <c r="B8672">
-        <v>85.91172348630275</v>
+        <v>85.91172348630273</v>
       </c>
     </row>
     <row r="8673" spans="1:2">
@@ -70383,7 +70383,7 @@
         <v>8755</v>
       </c>
       <c r="B8755">
-        <v>330.1415943416189</v>
+        <v>330.1415943416188</v>
       </c>
     </row>
     <row r="8756" spans="1:2">
